--- a/biology/Zoologie/Grisin_à_croupion_roux/Grisin_à_croupion_roux.xlsx
+++ b/biology/Zoologie/Grisin_à_croupion_roux/Grisin_à_croupion_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A0_croupion_roux</t>
+          <t>Grisin_à_croupion_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchrepomis callinota
-Le Grisin à croupion roux[1] (Euchrepomis callinota) est une espèce d'oiseaux de la famille des Thamnophilidae qui se rencontre en Amérique du Sud et en Amérique centrale.
+Le Grisin à croupion roux (Euchrepomis callinota) est une espèce d'oiseaux de la famille des Thamnophilidae qui se rencontre en Amérique du Sud et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A0_croupion_roux</t>
+          <t>Grisin_à_croupion_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après COI (version 11.1, 2021), dans l'ordre phylogénétique :
 Euchrepomis callinota callinota
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A0_croupion_roux</t>
+          <t>Grisin_à_croupion_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Terenura callinota (P.L.Sclater, 1855)[1].
-L'espèce a été initialement classée dans le genre Formicivora sous le protonyme Formicivora callinota Sclater, 1855[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grisin à croupion roux[1].
-Terenura callinota a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Terenura callinota (P.L.Sclater, 1855).
+L'espèce a été initialement classée dans le genre Formicivora sous le protonyme Formicivora callinota Sclater, 1855.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grisin à croupion roux.
+Terenura callinota a pour synonymes :
 Euchrepomis callinota callinota
 Euchrepomis callinota (P.L.Sclater, 1855)
 Formicivora callinota Sclater, 1855</t>
